--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC10-ARIX FIBULA #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC10-ARIX FIBULA #1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07A88E-6DDE-4D9A-ACF3-8A7DADDFC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F02A1642-D575-4365-BB05-486375263C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13125" yWindow="180" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1235,12 +1224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1714,22 +1703,22 @@
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1825,18 +1814,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1848,13 +1837,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1901,7 +1890,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1950,6 +1939,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1986,6 +1978,78 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1994,81 +2058,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2501,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2530,18 +2519,18 @@
     <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="86"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="72" t="s">
         <v>322</v>
       </c>
@@ -2550,22 +2539,22 @@
     <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="71"/>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="94"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
@@ -2611,10 +2600,10 @@
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="77"/>
       <c r="D11" s="25" t="s">
         <v>158</v>
@@ -3181,7 +3170,7 @@
         <v>265</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="36">
@@ -3189,7 +3178,7 @@
       </c>
       <c r="G43" s="39">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3315,7 +3304,7 @@
       <c r="C49" s="31"/>
       <c r="D49" s="52">
         <f>SUM(D40:D48)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="36"/>
@@ -4352,12 +4341,12 @@
       <c r="B95" s="43"/>
       <c r="C95" s="44"/>
       <c r="D95" s="30"/>
-      <c r="F95" s="122" t="s">
+      <c r="F95" s="83" t="s">
         <v>136</v>
       </c>
       <c r="G95" s="46">
         <f>SUM(G24:G94)</f>
-        <v>32950</v>
+        <v>32050</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4367,12 +4356,12 @@
       <c r="B96" s="43"/>
       <c r="C96" s="44"/>
       <c r="D96" s="30"/>
-      <c r="F96" s="122" t="s">
+      <c r="F96" s="83" t="s">
         <v>344</v>
       </c>
       <c r="G96" s="47">
         <f>+G95*0.15</f>
-        <v>4942.5</v>
+        <v>4807.5</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4382,12 +4371,12 @@
       <c r="B97" s="43"/>
       <c r="C97" s="44"/>
       <c r="D97" s="30"/>
-      <c r="F97" s="122" t="s">
+      <c r="F97" s="83" t="s">
         <v>138</v>
       </c>
       <c r="G97" s="47">
         <f>+G95+G96</f>
-        <v>37892.5</v>
+        <v>36857.5</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -5422,29 +5411,29 @@
     <row r="2" spans="1:16" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="112" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="113"/>
+      <c r="G3" s="107"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,28 +5445,28 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="98">
+      <c r="C5" s="108">
         <f ca="1">NOW()</f>
-        <v>45392.663420949073</v>
-      </c>
-      <c r="D5" s="98"/>
+        <v>45397.908416435188</v>
+      </c>
+      <c r="D5" s="108"/>
       <c r="E5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="109">
         <v>20230200001</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
+      <c r="G5" s="110"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -5493,13 +5482,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="117"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
     </row>
@@ -5514,19 +5503,19 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="115"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
     </row>
@@ -5545,15 +5534,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="97"/>
+      <c r="G11" s="122"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
     </row>
@@ -5572,17 +5561,17 @@
         <v>98</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="98">
+      <c r="C13" s="108">
         <v>44972.694506481479</v>
       </c>
-      <c r="D13" s="98"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="100"/>
+      <c r="G13" s="118"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
@@ -5602,8 +5591,8 @@
         <v>100</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="15"/>
       <c r="F15" s="19"/>
       <c r="G15" s="15"/>
@@ -5627,13 +5616,13 @@
         <v>101</v>
       </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="15"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
@@ -5655,8 +5644,8 @@
         <v>122</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="19"/>
@@ -6995,12 +6984,12 @@
     <row r="77" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="103" t="s">
+      <c r="B79" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7341,6 +7330,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="O4:P5"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="C2:E2"/>
@@ -7357,11 +7351,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
